--- a/src/data/fall19/leadership_fall19.xlsx
+++ b/src/data/fall19/leadership_fall19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farbodrafezy/Documents/personal/projects/dspuci-website-gatsby/src/data/fall19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C26CB0A-263A-984D-8C64-8000106055DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72A4B28-3806-264B-8EE2-803384A42F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Vice President of Alumni Relations</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Eugen Xie</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Lisa Deng</t>
+  </si>
+  <si>
+    <t>Deborah Yeung</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
